--- a/outputs/fft-o__Bacteroidales_pruned3.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned3.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="g__Ruminococcus_E_wrapper-LSVM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="g__Ruminococcus_E_wrapper-LSV-c" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__Ruminococcus_E_-LSVM-ovo" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1520,7 +1521,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1625,7 +1626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1655,7 +1656,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1670,7 +1671,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1700,7 +1701,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1730,7 +1731,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1760,7 +1761,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1775,7 +1776,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2075,7 +2076,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2135,7 +2136,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2180,7 +2181,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2215,6 +2216,907 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1181496323471888</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1105588244686267</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.018209650105977</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1240916497764588</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1211737152257524</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1445177279483104</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1500600167832934</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1301718252456493</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1483231820803355</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.154777389802872</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.09617878856537736</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1701809687339424</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.142362886856089</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1685277113557279</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1588012982524636</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.06990893469926482</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.07915171378678154</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.008048586984879291</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.1704052915854538</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.1138031477574442</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1958918766763626</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1708532337736515</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1517274125246051</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.247416096901667</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1346781411522037</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1572184053591579</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1565089680677271</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1688078049142234</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.1688000287412782</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1021101521419704</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.0999185236415716</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1149079919100602</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.08837706547452047</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1374818189436305</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.0153408288739685</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.138491407097963</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.09635851677495968</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.1263365822212632</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.07830622881471939</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.1235195913545284</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1241179901452389</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.04420713231239685</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.1114051534410219</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.1152763782720836</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.1787746661368282</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.09611326767140023</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.1050466276030261</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.1436484936017482</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.1403618292514696</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.1361436089837407</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.1179858335278946</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.06275293185876463</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.1738205348458075</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.1227086973448574</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.1213475953582915</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.1483644852902051</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.1607474713676048</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.1264043076085099</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
         </is>
       </c>
     </row>

--- a/outputs/fft-o__Bacteroidales_pruned3.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned3.xlsx
@@ -10,6 +10,11 @@
     <sheet name="g__Ruminococcus_E_wrapper-LSVM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="g__Ruminococcus_E_wrapper-LSV-c" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="g__Ruminococcus_E_-LSVM-ovo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__C941_-LSVM-ovo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__Ruminococcus_E_-LSVM-ovo1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__Ruminococcus_E_-LSVM-ovo2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__Ruminococcus_E_wrapper-LSVM1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="g__Ruminococcus_E_wrapper-LSV-c1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3123,4 +3128,4164 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.227967554491924</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.137815745144283</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.243345745646182</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.09040664304412208</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.238818718734418</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.256968193668836</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.257237693395151</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.199387290429682</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.232717586883221</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.228721093262085</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.243260337283213</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.256091760219862</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.27707759721837</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.235172470691212</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.213389950719669</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.222197639616035</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.238066073722912</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.237325800416592</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.266458666800597</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.163897254962914</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.260593150700948</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.248541505499564</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.257588204710726</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.214043713806504</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.212263837329606</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.106699196290513</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.228753984941951</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.252051820028272</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.260670992677384</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.241204566658046</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.198715376269575</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.246899748005045</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.252594896756548</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.226291271176302</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.175339819718108</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.098559743152513</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.201459194368126</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.235037852150203</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.07331053742542</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.154512916591527</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.128600591124185</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1117403527362728</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.149051789948953</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.184338534476977</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1077003973264937</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.198467263646352</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1983551568789747</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.08117001925592215</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1201410679764626</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.053843594021552</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.215170684769375</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.188397418857076</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.229125629185278</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.1484612817023837</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.165340601512937</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1979423443564422</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1820884199165227</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.105601953847654</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2865361820191062</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.1096702307263</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1805031013894214</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.087117524056823</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2250967398784585</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.163244708092747</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.179980137692642</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.191242178733302</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.035576673114143</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.18150188215053</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.11273790561471</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.219541622833645</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.065677992969568</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.211924553019532</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.077035735199783</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.227416138997834</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.062930787786221</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.06000590600135091</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.24430059805631</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.120989727371287</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.165450482404399</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.147460183547593</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.148538136746764</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.134529649758456</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.072569629202801</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.1937330454229709</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.05730441484323589</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.02423209862983157</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.232601840921931</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.1657983863248556</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.121592192581878</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.07627986489293795</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.1587402873496053</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.132598517005806</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.210486628550313</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1177606084797398</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.04726625736833055</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.19711321196532</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1105740389316545</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.13175813754482</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.143644159844505</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.20282719134977</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.155973941665104</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1243019264461493</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1375995532943906</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.09535438120398064</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2064378301324086</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.1550790745008823</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1913551077193754</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.099716429894062</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.14696045489204</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.107375440973789</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.216381772310115</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.1926723448067686</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.051595591861545</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2139047469702847</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.204772596412216</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.111360739649238</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2906766287820324</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.068503830237932</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2049633536428537</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1645453707477512</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2092184550776232</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2292853641289486</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.137016590402506</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.09920575721888</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.04138625324532195</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.1139721998832893</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.095467266408014</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.243377634339216</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.1295551253045905</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.148457096957471</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.040627432990443</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.099719139530366</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.078735254155</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1661152140784233</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.220518414339954</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.057925384497217</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.095570594701733</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.1390820945130899</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.076293814649683</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.09511489043087</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.08532738624369879</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.1369379643646823</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.1219009830756037</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.06033325719526159</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.212238234194341</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.1841791619383391</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.142637791252745</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.1538086913023253</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.1319020091947787</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.2132145053320163</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.208742471033159</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0360230354519703</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09189781623588845</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.233467268937164</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2247786790332667</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.01941992331179408</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6760144875440498</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2158817891737506</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8391932230283082</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8174667397040686</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.031450491119883</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.063638886189613</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.514896239779126</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.9427735969070822</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.432224877521706</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1759784187237071</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.453101059073141</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5668512067173391</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.017445286849594</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.505337841049868</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04037180084206451</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.718928069773181</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.724398190972811</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4437545126412247</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.750614974746035</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.357453664004889</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.42643209195165</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5650818514608147</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.6566786491596076</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.207822839111257</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.518807813156543</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.927219066612851</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2517211617776152</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3839094392280071</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7508413703294269</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.323059338186432</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.2284169617633961</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.305859689984594</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.03554394840484929</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.45427859166245</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.2527764463650787</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.682827608188327</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2.693580381253694</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2776365495871461</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.765731894730617</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.5092479056943143</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3776422689613997</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.600059202251689</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.7787812670241229</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.7854722339124928</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0199809790223854</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8229313267756234</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.047315974889997</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.7359251405104925</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.173524897423247</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.07225847270722406</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.158511643097553</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.7670437128633431</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.301671827601663</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5180115177259852</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5459489081179443</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3876106604833666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.490290038344103</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.838007243772025</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3920591054131247</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9195966115141541</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9087333698520343</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02861320154645891</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5879892093618536</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7834256033586695</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5201859004210323</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7218772563206124</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6787268320024444</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2174590742695927</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1716606754201962</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6258605808888076</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6919547196140036</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8754206851647135</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.385791519118302</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4822280257975753</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3736117768174607</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8414138040941634</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6388182747935731</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2453760471528428</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6888211344806998</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1106093664879386</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1072638830437536</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5099904895111927</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9114656633878118</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1320374297447537</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.463870763646388</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1164781435683285</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/fft-o__Bacteroidales_pruned3.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned3.xlsx
@@ -11,6 +11,8 @@
     <sheet name="g__Ruminococcus_E_-LSVM-ovo" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__C941_-LSVM-ovo" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="g__Ruminococcus_E-LSVM-ovo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__Ruminococcus_E-LSVM-ovo1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__C941-LSVM-ovo" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4605,4 +4607,1461 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1181496323471888</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1105588244686267</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.018209650105977</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1240916497764588</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1211737152257524</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1445177279483104</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1500600167832934</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1301718252456493</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1483231820803355</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.154777389802872</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.09617878856537736</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1701809687339424</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.142362886856089</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1685277113557279</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1588012982524636</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.06990893469926482</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.07915171378678154</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.008048586984879291</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.1704052915854538</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.1138031477574442</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1958918766763626</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1708532337736515</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1517274125246051</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.247416096901667</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1346781411522037</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1572184053591579</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1565089680677271</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1688078049142234</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.1688000287412782</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1021101521419704</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.0999185236415716</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1149079919100602</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.08837706547452047</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1374818189436305</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.0153408288739685</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.138491407097963</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.09635851677495968</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.1263365822212632</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.07830622881471939</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.1235195913545284</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1241179901452389</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.04420713231239685</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.1114051534410219</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.1152763782720836</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.1787746661368282</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.09611326767140023</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.1050466276030261</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.1436484936017482</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.1403618292514696</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.1361436089837407</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.1179858335278946</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.06275293185876463</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.1738205348458075</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.1227086973448574</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.1213475953582915</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.1483644852902051</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.1607474713676048</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.1264043076085099</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae-f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.00355261772505</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1090853466564521</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.001650935440859</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1506118275891695</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.008150094786287289</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.034601285877297</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.057274464674326</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.09245394343075254</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.03754528629139842</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.051056853976408</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.019964713472485</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.034904757463565</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.112524767679057</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.02732725563891485</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.03541259144897797</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.004416557559771364</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.01878511793595097</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.045701574134055</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.117729499828142</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.1130240061915015</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0713937690792</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.015111772811671</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.005480207158602323</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.06012806801712932</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.06455138320424685</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.09174233284088813</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.015784625297364</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.048787250259243</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.067834384898596</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.01183358922348328</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.0618346838981884</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.011338504233405</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.064165945399241</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02231379204486734</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.07491249787164476</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>